--- a/Code/Results/Cases/Case_5_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994918172427927</v>
+        <v>1.032238159739954</v>
       </c>
       <c r="D2">
-        <v>1.017375392844277</v>
+        <v>1.035411514214439</v>
       </c>
       <c r="E2">
-        <v>1.014146789711574</v>
+        <v>1.040941993116917</v>
       </c>
       <c r="F2">
-        <v>1.02090416548201</v>
+        <v>1.050074940190408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042688239997162</v>
+        <v>1.033533150488972</v>
       </c>
       <c r="J2">
-        <v>1.021687738600127</v>
+        <v>1.037369480076597</v>
       </c>
       <c r="K2">
-        <v>1.028597853910086</v>
+        <v>1.038208195315353</v>
       </c>
       <c r="L2">
-        <v>1.025412493634948</v>
+        <v>1.043722913166294</v>
       </c>
       <c r="M2">
-        <v>1.032079755800122</v>
+        <v>1.052830226853501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004121177324689</v>
+        <v>1.033222425333232</v>
       </c>
       <c r="D3">
-        <v>1.020709272020519</v>
+        <v>1.036134189439881</v>
       </c>
       <c r="E3">
-        <v>1.018040636141765</v>
+        <v>1.041823143574659</v>
       </c>
       <c r="F3">
-        <v>1.025218570001803</v>
+        <v>1.051055720509156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043740697740681</v>
+        <v>1.033693886621651</v>
       </c>
       <c r="J3">
-        <v>1.024500121913513</v>
+        <v>1.037995779802559</v>
       </c>
       <c r="K3">
-        <v>1.031083857298734</v>
+        <v>1.03874049049689</v>
       </c>
       <c r="L3">
-        <v>1.028447772307567</v>
+        <v>1.044414404366428</v>
       </c>
       <c r="M3">
-        <v>1.035538630746733</v>
+        <v>1.05362294654327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007055855830331</v>
+        <v>1.033859774066381</v>
       </c>
       <c r="D4">
-        <v>1.022824514758069</v>
+        <v>1.036601951805587</v>
       </c>
       <c r="E4">
-        <v>1.02051509467873</v>
+        <v>1.042394089855593</v>
       </c>
       <c r="F4">
-        <v>1.027959918655377</v>
+        <v>1.051691228812076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044397370502825</v>
+        <v>1.033796635727209</v>
       </c>
       <c r="J4">
-        <v>1.026280778139112</v>
+        <v>1.038400907677486</v>
       </c>
       <c r="K4">
-        <v>1.032655056623012</v>
+        <v>1.039084395181607</v>
       </c>
       <c r="L4">
-        <v>1.030372068563135</v>
+        <v>1.044861991377187</v>
       </c>
       <c r="M4">
-        <v>1.037732208781102</v>
+        <v>1.054136149083096</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008275558248361</v>
+        <v>1.034127825593162</v>
       </c>
       <c r="D5">
-        <v>1.023704016463293</v>
+        <v>1.036798632086645</v>
       </c>
       <c r="E5">
-        <v>1.021544926739085</v>
+        <v>1.042634301950497</v>
       </c>
       <c r="F5">
-        <v>1.029100746316886</v>
+        <v>1.051958605483189</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044667730243042</v>
+        <v>1.033839529804051</v>
       </c>
       <c r="J5">
-        <v>1.027020286346494</v>
+        <v>1.038571191472869</v>
       </c>
       <c r="K5">
-        <v>1.033306885262101</v>
+        <v>1.039228845869806</v>
       </c>
       <c r="L5">
-        <v>1.031171834920553</v>
+        <v>1.045050190956526</v>
       </c>
       <c r="M5">
-        <v>1.038644069662673</v>
+        <v>1.054351960606277</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008479543341939</v>
+        <v>1.034172839059974</v>
       </c>
       <c r="D6">
-        <v>1.023851125835349</v>
+        <v>1.036831657467779</v>
       </c>
       <c r="E6">
-        <v>1.021717238910024</v>
+        <v>1.042674645507492</v>
       </c>
       <c r="F6">
-        <v>1.029291625863035</v>
+        <v>1.052003511423274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044712793663708</v>
+        <v>1.033846714205096</v>
       </c>
       <c r="J6">
-        <v>1.02714392879865</v>
+        <v>1.038599780972136</v>
       </c>
       <c r="K6">
-        <v>1.03341582689428</v>
+        <v>1.039253092310567</v>
       </c>
       <c r="L6">
-        <v>1.031305587829297</v>
+        <v>1.045081792460367</v>
       </c>
       <c r="M6">
-        <v>1.038796579705005</v>
+        <v>1.054388199867703</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007072208030212</v>
+        <v>1.033863355352226</v>
       </c>
       <c r="D7">
-        <v>1.022836304600895</v>
+        <v>1.036604579729156</v>
       </c>
       <c r="E7">
-        <v>1.020528895849449</v>
+        <v>1.042397298850889</v>
       </c>
       <c r="F7">
-        <v>1.027975207626132</v>
+        <v>1.051694800692567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044401005325307</v>
+        <v>1.033797210065851</v>
       </c>
       <c r="J7">
-        <v>1.026290694784946</v>
+        <v>1.038403183144562</v>
       </c>
       <c r="K7">
-        <v>1.032663800262045</v>
+        <v>1.039086325838355</v>
       </c>
       <c r="L7">
-        <v>1.03038279086824</v>
+        <v>1.044864505976764</v>
       </c>
       <c r="M7">
-        <v>1.037744433213623</v>
+        <v>1.05413903252816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001069250876634</v>
+        <v>1.032570700574357</v>
       </c>
       <c r="D8">
-        <v>1.01851097988114</v>
+        <v>1.035655715268952</v>
       </c>
       <c r="E8">
-        <v>1.015472305355676</v>
+        <v>1.041239619203689</v>
       </c>
       <c r="F8">
-        <v>1.022372925914897</v>
+        <v>1.05040621701599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043049037197019</v>
+        <v>1.033587732178368</v>
       </c>
       <c r="J8">
-        <v>1.022646481841563</v>
+        <v>1.037581167387215</v>
       </c>
       <c r="K8">
-        <v>1.029445912831679</v>
+        <v>1.038388195287138</v>
       </c>
       <c r="L8">
-        <v>1.026446694973494</v>
+        <v>1.043956575063674</v>
       </c>
       <c r="M8">
-        <v>1.033258135286993</v>
+        <v>1.053098075743804</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.990000374108959</v>
+        <v>1.030296457052601</v>
       </c>
       <c r="D9">
-        <v>1.010552884383459</v>
+        <v>1.033984848373055</v>
       </c>
       <c r="E9">
-        <v>1.006198734816886</v>
+        <v>1.039205688612879</v>
       </c>
       <c r="F9">
-        <v>1.012095312367873</v>
+        <v>1.048142343295738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040474528270146</v>
+        <v>1.033208993213326</v>
       </c>
       <c r="J9">
-        <v>1.015911254686529</v>
+        <v>1.036131713349781</v>
       </c>
       <c r="K9">
-        <v>1.023477037579843</v>
+        <v>1.037154013877927</v>
       </c>
       <c r="L9">
-        <v>1.019192036116459</v>
+        <v>1.042357844361874</v>
       </c>
       <c r="M9">
-        <v>1.024995152947075</v>
+        <v>1.051265813390655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.982253736865411</v>
+        <v>1.028782743725124</v>
       </c>
       <c r="D10">
-        <v>1.004999598222026</v>
+        <v>1.032871788747539</v>
       </c>
       <c r="E10">
-        <v>0.9997459404603672</v>
+        <v>1.037853870803772</v>
       </c>
       <c r="F10">
-        <v>1.004941123801133</v>
+        <v>1.046637718527403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038620377865463</v>
+        <v>1.032950067206241</v>
       </c>
       <c r="J10">
-        <v>1.011189578719887</v>
+        <v>1.035164817161202</v>
       </c>
       <c r="K10">
-        <v>1.019279166328665</v>
+        <v>1.036328601411075</v>
       </c>
       <c r="L10">
-        <v>1.014119783546261</v>
+        <v>1.041292858766433</v>
       </c>
       <c r="M10">
-        <v>1.019221734168086</v>
+        <v>1.050045735426713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9788031507351873</v>
+        <v>1.028127878424783</v>
       </c>
       <c r="D11">
-        <v>1.002530909076127</v>
+        <v>1.032390039436615</v>
       </c>
       <c r="E11">
-        <v>0.9968813368131595</v>
+        <v>1.037269513991818</v>
       </c>
       <c r="F11">
-        <v>1.00176436837157</v>
+        <v>1.045987310412934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037782733583458</v>
+        <v>1.032836429526944</v>
       </c>
       <c r="J11">
-        <v>1.009085126044775</v>
+        <v>1.034746009930003</v>
       </c>
       <c r="K11">
-        <v>1.017405253472293</v>
+        <v>1.035970577510792</v>
       </c>
       <c r="L11">
-        <v>1.011862307182612</v>
+        <v>1.040831917618992</v>
       </c>
       <c r="M11">
-        <v>1.016653087818085</v>
+        <v>1.049517779979842</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.977506153351911</v>
+        <v>1.02788472042617</v>
       </c>
       <c r="D12">
-        <v>1.001603817489124</v>
+        <v>1.032211129514219</v>
       </c>
       <c r="E12">
-        <v>0.9958061213113335</v>
+        <v>1.037052607586331</v>
       </c>
       <c r="F12">
-        <v>1.000571859690249</v>
+        <v>1.045745886895775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037466176382457</v>
+        <v>1.032793991374344</v>
       </c>
       <c r="J12">
-        <v>1.008293973381353</v>
+        <v>1.034590426810188</v>
       </c>
       <c r="K12">
-        <v>1.016700355256802</v>
+        <v>1.035837499997514</v>
       </c>
       <c r="L12">
-        <v>1.011014112916705</v>
+        <v>1.040660735175556</v>
       </c>
       <c r="M12">
-        <v>1.015688111965782</v>
+        <v>1.049321726825228</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9777850699819521</v>
+        <v>1.02793687464431</v>
       </c>
       <c r="D13">
-        <v>1.001803147430191</v>
+        <v>1.032249504776604</v>
       </c>
       <c r="E13">
-        <v>0.9960372741324988</v>
+        <v>1.037099127952986</v>
       </c>
       <c r="F13">
-        <v>1.000828234516977</v>
+        <v>1.045797665484201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037534327435154</v>
+        <v>1.032803104814947</v>
       </c>
       <c r="J13">
-        <v>1.008464114389154</v>
+        <v>1.03462380078581</v>
       </c>
       <c r="K13">
-        <v>1.016851965222606</v>
+        <v>1.035866049702102</v>
       </c>
       <c r="L13">
-        <v>1.011196498976839</v>
+        <v>1.040697452945705</v>
       </c>
       <c r="M13">
-        <v>1.015895603402982</v>
+        <v>1.049363778478226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9786962576168907</v>
+        <v>1.02810777710736</v>
       </c>
       <c r="D14">
-        <v>1.002454484559753</v>
+        <v>1.032375250001724</v>
       </c>
       <c r="E14">
-        <v>0.9967926906225099</v>
+        <v>1.037251581379723</v>
       </c>
       <c r="F14">
-        <v>1.001666054618323</v>
+        <v>1.045967350856238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037756678571567</v>
+        <v>1.032832926225702</v>
       </c>
       <c r="J14">
-        <v>1.009019924985024</v>
+        <v>1.034733149773351</v>
       </c>
       <c r="K14">
-        <v>1.017347169178172</v>
+        <v>1.035959579143427</v>
       </c>
       <c r="L14">
-        <v>1.011792395271524</v>
+        <v>1.040817766974658</v>
       </c>
       <c r="M14">
-        <v>1.016573547549249</v>
+        <v>1.049501573078016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9792556174531641</v>
+        <v>1.028213087451969</v>
       </c>
       <c r="D15">
-        <v>1.002854440104212</v>
+        <v>1.032452730224379</v>
       </c>
       <c r="E15">
-        <v>0.9972566288762703</v>
+        <v>1.037345532841941</v>
       </c>
       <c r="F15">
-        <v>1.002180583671112</v>
+        <v>1.046071921778504</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037892952403158</v>
+        <v>1.03285126997475</v>
       </c>
       <c r="J15">
-        <v>1.009361109675966</v>
+        <v>1.034800520737539</v>
       </c>
       <c r="K15">
-        <v>1.017651096413836</v>
+        <v>1.036017193621335</v>
       </c>
       <c r="L15">
-        <v>1.012158250783512</v>
+        <v>1.040891900635253</v>
       </c>
       <c r="M15">
-        <v>1.016989794578547</v>
+        <v>1.049586479931501</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9824806431467159</v>
+        <v>1.028826217304063</v>
       </c>
       <c r="D16">
-        <v>1.005162046402108</v>
+        <v>1.032903765453369</v>
       </c>
       <c r="E16">
-        <v>0.9999345206066493</v>
+        <v>1.037892673577626</v>
       </c>
       <c r="F16">
-        <v>1.005150236041154</v>
+        <v>1.046680907333017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038675220531057</v>
+        <v>1.032957576957702</v>
       </c>
       <c r="J16">
-        <v>1.011327942954245</v>
+        <v>1.035192609244745</v>
       </c>
       <c r="K16">
-        <v>1.019402314102773</v>
+        <v>1.036352349398967</v>
       </c>
       <c r="L16">
-        <v>1.014268276183142</v>
+        <v>1.041323454298722</v>
       </c>
       <c r="M16">
-        <v>1.019390713533409</v>
+        <v>1.050080781471028</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9844772779788709</v>
+        <v>1.029210973857526</v>
       </c>
       <c r="D17">
-        <v>1.006592059972992</v>
+        <v>1.033186745800674</v>
       </c>
       <c r="E17">
-        <v>1.001595017587567</v>
+        <v>1.038236146134155</v>
       </c>
       <c r="F17">
-        <v>1.006991433132707</v>
+        <v>1.047063204322041</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039156471847419</v>
+        <v>1.033023853623361</v>
       </c>
       <c r="J17">
-        <v>1.012545323854074</v>
+        <v>1.035438520470568</v>
       </c>
       <c r="K17">
-        <v>1.020485485372101</v>
+        <v>1.036562419770016</v>
       </c>
       <c r="L17">
-        <v>1.015575138046626</v>
+        <v>1.041594211917702</v>
       </c>
       <c r="M17">
-        <v>1.020877977709365</v>
+        <v>1.050390937181769</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9856326550663985</v>
+        <v>1.029435452013017</v>
       </c>
       <c r="D18">
-        <v>1.007420014283288</v>
+        <v>1.033351823903438</v>
       </c>
       <c r="E18">
-        <v>1.002556796425514</v>
+        <v>1.038436583235917</v>
       </c>
       <c r="F18">
-        <v>1.008057802136232</v>
+        <v>1.047286298166507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039433835078088</v>
+        <v>1.033062364895124</v>
       </c>
       <c r="J18">
-        <v>1.013249651369816</v>
+        <v>1.035581943268992</v>
       </c>
       <c r="K18">
-        <v>1.021111886084667</v>
+        <v>1.036684890879716</v>
       </c>
       <c r="L18">
-        <v>1.016331541697906</v>
+        <v>1.041752159942221</v>
       </c>
       <c r="M18">
-        <v>1.021738882005045</v>
+        <v>1.05057187911435</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9860250683010984</v>
+        <v>1.029512002771529</v>
       </c>
       <c r="D19">
-        <v>1.00770129656981</v>
+        <v>1.033408114701976</v>
       </c>
       <c r="E19">
-        <v>1.002883608408437</v>
+        <v>1.038504943250503</v>
       </c>
       <c r="F19">
-        <v>1.008420141683871</v>
+        <v>1.047362385429373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039527847456739</v>
+        <v>1.033075471332279</v>
       </c>
       <c r="J19">
-        <v>1.013488846984494</v>
+        <v>1.035630844497951</v>
       </c>
       <c r="K19">
-        <v>1.021324569162474</v>
+        <v>1.036726640263953</v>
       </c>
       <c r="L19">
-        <v>1.016588474690789</v>
+        <v>1.041806019449312</v>
       </c>
       <c r="M19">
-        <v>1.022031325903654</v>
+        <v>1.050633581265374</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9842640181254045</v>
+        <v>1.029169687306525</v>
       </c>
       <c r="D20">
-        <v>1.006439272397437</v>
+        <v>1.033156382562867</v>
       </c>
       <c r="E20">
-        <v>1.001417565374082</v>
+        <v>1.038199284906722</v>
       </c>
       <c r="F20">
-        <v>1.006794677745097</v>
+        <v>1.047022176451553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039105185218586</v>
+        <v>1.033016757943835</v>
       </c>
       <c r="J20">
-        <v>1.012415308397187</v>
+        <v>1.035412137868376</v>
       </c>
       <c r="K20">
-        <v>1.020369832147598</v>
+        <v>1.036539887343236</v>
       </c>
       <c r="L20">
-        <v>1.01543553431816</v>
+        <v>1.041565160145006</v>
       </c>
       <c r="M20">
-        <v>1.020719093951602</v>
+        <v>1.050357656952307</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9784283648433618</v>
+        <v>1.028057448153838</v>
       </c>
       <c r="D21">
-        <v>1.002262965157577</v>
+        <v>1.032338220239989</v>
       </c>
       <c r="E21">
-        <v>0.9965705526341734</v>
+        <v>1.037206683503037</v>
       </c>
       <c r="F21">
-        <v>1.001419688630158</v>
+        <v>1.045917378124153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037691352906542</v>
+        <v>1.032824150855386</v>
       </c>
       <c r="J21">
-        <v>1.008856517767308</v>
+        <v>1.034700949753033</v>
       </c>
       <c r="K21">
-        <v>1.017201591427057</v>
+        <v>1.035932039572781</v>
       </c>
       <c r="L21">
-        <v>1.01161718953636</v>
+        <v>1.040782336611906</v>
       </c>
       <c r="M21">
-        <v>1.016374214400699</v>
+        <v>1.049460994531816</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9746702997452309</v>
+        <v>1.027358649462838</v>
       </c>
       <c r="D22">
-        <v>0.9995783946043427</v>
+        <v>1.031824001939178</v>
       </c>
       <c r="E22">
-        <v>0.993458074762587</v>
+        <v>1.036583462465288</v>
       </c>
       <c r="F22">
-        <v>0.9979674203679663</v>
+        <v>1.04522371441645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036770963190669</v>
+        <v>1.03270173188306</v>
       </c>
       <c r="J22">
-        <v>1.006563949537353</v>
+        <v>1.034253685319358</v>
       </c>
       <c r="K22">
-        <v>1.01515820820923</v>
+        <v>1.035549332623949</v>
       </c>
       <c r="L22">
-        <v>1.009160252068116</v>
+        <v>1.040290327777487</v>
       </c>
       <c r="M22">
-        <v>1.013579250882112</v>
+        <v>1.04889753443449</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9766712490899787</v>
+        <v>1.02772904730401</v>
       </c>
       <c r="D23">
-        <v>1.001007276275556</v>
+        <v>1.032096580097479</v>
       </c>
       <c r="E23">
-        <v>0.9951144215641496</v>
+        <v>1.036913761188507</v>
       </c>
       <c r="F23">
-        <v>0.9998046661108455</v>
+        <v>1.045591346657798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037261928970763</v>
+        <v>1.032766753393796</v>
       </c>
       <c r="J23">
-        <v>1.007784660607104</v>
+        <v>1.034490799034381</v>
       </c>
       <c r="K23">
-        <v>1.016246455691157</v>
+        <v>1.035752262661277</v>
       </c>
       <c r="L23">
-        <v>1.010468216313976</v>
+        <v>1.040551133293232</v>
       </c>
       <c r="M23">
-        <v>1.01506709235449</v>
+        <v>1.049196205854447</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9843604095241766</v>
+        <v>1.029188342748204</v>
       </c>
       <c r="D24">
-        <v>1.006508329491638</v>
+        <v>1.033170102339976</v>
       </c>
       <c r="E24">
-        <v>1.001497769242213</v>
+        <v>1.038215940614136</v>
       </c>
       <c r="F24">
-        <v>1.006883606381565</v>
+        <v>1.047040714851277</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039128369753846</v>
+        <v>1.033019964629561</v>
       </c>
       <c r="J24">
-        <v>1.012474074521929</v>
+        <v>1.035424059071078</v>
       </c>
       <c r="K24">
-        <v>1.020422107503938</v>
+        <v>1.036550068960551</v>
       </c>
       <c r="L24">
-        <v>1.015498633329155</v>
+        <v>1.041578287329801</v>
       </c>
       <c r="M24">
-        <v>1.020790907013727</v>
+        <v>1.050372694752477</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9929238093955258</v>
+        <v>1.030883974986473</v>
       </c>
       <c r="D25">
-        <v>1.012652255119588</v>
+        <v>1.034416662974905</v>
       </c>
       <c r="E25">
-        <v>1.008641814316709</v>
+        <v>1.039730784495487</v>
       </c>
       <c r="F25">
-        <v>1.014803338006023</v>
+        <v>1.048726798899577</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041163724762616</v>
+        <v>1.033308042388879</v>
       </c>
       <c r="J25">
-        <v>1.017691685048036</v>
+        <v>1.036506540242277</v>
       </c>
       <c r="K25">
-        <v>1.025057285539578</v>
+        <v>1.037473546049255</v>
       </c>
       <c r="L25">
-        <v>1.021107442283935</v>
+        <v>1.042771011466525</v>
       </c>
       <c r="M25">
-        <v>1.027176116758137</v>
+        <v>1.051739249508673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032238159739954</v>
+        <v>0.9994918172427927</v>
       </c>
       <c r="D2">
-        <v>1.035411514214439</v>
+        <v>1.017375392844277</v>
       </c>
       <c r="E2">
-        <v>1.040941993116917</v>
+        <v>1.014146789711574</v>
       </c>
       <c r="F2">
-        <v>1.050074940190408</v>
+        <v>1.02090416548201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033533150488972</v>
+        <v>1.042688239997162</v>
       </c>
       <c r="J2">
-        <v>1.037369480076597</v>
+        <v>1.021687738600127</v>
       </c>
       <c r="K2">
-        <v>1.038208195315353</v>
+        <v>1.028597853910086</v>
       </c>
       <c r="L2">
-        <v>1.043722913166294</v>
+        <v>1.025412493634948</v>
       </c>
       <c r="M2">
-        <v>1.052830226853501</v>
+        <v>1.032079755800122</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033222425333232</v>
+        <v>1.004121177324689</v>
       </c>
       <c r="D3">
-        <v>1.036134189439881</v>
+        <v>1.020709272020518</v>
       </c>
       <c r="E3">
-        <v>1.041823143574659</v>
+        <v>1.018040636141765</v>
       </c>
       <c r="F3">
-        <v>1.051055720509156</v>
+        <v>1.025218570001803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033693886621651</v>
+        <v>1.043740697740681</v>
       </c>
       <c r="J3">
-        <v>1.037995779802559</v>
+        <v>1.024500121913512</v>
       </c>
       <c r="K3">
-        <v>1.03874049049689</v>
+        <v>1.031083857298733</v>
       </c>
       <c r="L3">
-        <v>1.044414404366428</v>
+        <v>1.028447772307567</v>
       </c>
       <c r="M3">
-        <v>1.05362294654327</v>
+        <v>1.035538630746733</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033859774066381</v>
+        <v>1.007055855830331</v>
       </c>
       <c r="D4">
-        <v>1.036601951805587</v>
+        <v>1.022824514758069</v>
       </c>
       <c r="E4">
-        <v>1.042394089855593</v>
+        <v>1.02051509467873</v>
       </c>
       <c r="F4">
-        <v>1.051691228812076</v>
+        <v>1.027959918655377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033796635727209</v>
+        <v>1.044397370502826</v>
       </c>
       <c r="J4">
-        <v>1.038400907677486</v>
+        <v>1.026280778139113</v>
       </c>
       <c r="K4">
-        <v>1.039084395181607</v>
+        <v>1.032655056623012</v>
       </c>
       <c r="L4">
-        <v>1.044861991377187</v>
+        <v>1.030372068563136</v>
       </c>
       <c r="M4">
-        <v>1.054136149083096</v>
+        <v>1.037732208781103</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034127825593162</v>
+        <v>1.008275558248361</v>
       </c>
       <c r="D5">
-        <v>1.036798632086645</v>
+        <v>1.023704016463293</v>
       </c>
       <c r="E5">
-        <v>1.042634301950497</v>
+        <v>1.021544926739085</v>
       </c>
       <c r="F5">
-        <v>1.051958605483189</v>
+        <v>1.029100746316886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033839529804051</v>
+        <v>1.044667730243042</v>
       </c>
       <c r="J5">
-        <v>1.038571191472869</v>
+        <v>1.027020286346494</v>
       </c>
       <c r="K5">
-        <v>1.039228845869806</v>
+        <v>1.033306885262101</v>
       </c>
       <c r="L5">
-        <v>1.045050190956526</v>
+        <v>1.031171834920553</v>
       </c>
       <c r="M5">
-        <v>1.054351960606277</v>
+        <v>1.038644069662673</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034172839059974</v>
+        <v>1.008479543341938</v>
       </c>
       <c r="D6">
-        <v>1.036831657467779</v>
+        <v>1.023851125835348</v>
       </c>
       <c r="E6">
-        <v>1.042674645507492</v>
+        <v>1.021717238910023</v>
       </c>
       <c r="F6">
-        <v>1.052003511423274</v>
+        <v>1.029291625863035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033846714205096</v>
+        <v>1.044712793663708</v>
       </c>
       <c r="J6">
-        <v>1.038599780972136</v>
+        <v>1.02714392879865</v>
       </c>
       <c r="K6">
-        <v>1.039253092310567</v>
+        <v>1.03341582689428</v>
       </c>
       <c r="L6">
-        <v>1.045081792460367</v>
+        <v>1.031305587829297</v>
       </c>
       <c r="M6">
-        <v>1.054388199867703</v>
+        <v>1.038796579705004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033863355352226</v>
+        <v>1.007072208030212</v>
       </c>
       <c r="D7">
-        <v>1.036604579729156</v>
+        <v>1.022836304600896</v>
       </c>
       <c r="E7">
-        <v>1.042397298850889</v>
+        <v>1.020528895849449</v>
       </c>
       <c r="F7">
-        <v>1.051694800692567</v>
+        <v>1.027975207626132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033797210065851</v>
+        <v>1.044401005325307</v>
       </c>
       <c r="J7">
-        <v>1.038403183144562</v>
+        <v>1.026290694784946</v>
       </c>
       <c r="K7">
-        <v>1.039086325838355</v>
+        <v>1.032663800262045</v>
       </c>
       <c r="L7">
-        <v>1.044864505976764</v>
+        <v>1.03038279086824</v>
       </c>
       <c r="M7">
-        <v>1.05413903252816</v>
+        <v>1.037744433213623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032570700574357</v>
+        <v>1.001069250876633</v>
       </c>
       <c r="D8">
-        <v>1.035655715268952</v>
+        <v>1.01851097988114</v>
       </c>
       <c r="E8">
-        <v>1.041239619203689</v>
+        <v>1.015472305355676</v>
       </c>
       <c r="F8">
-        <v>1.05040621701599</v>
+        <v>1.022372925914897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033587732178368</v>
+        <v>1.043049037197019</v>
       </c>
       <c r="J8">
-        <v>1.037581167387215</v>
+        <v>1.022646481841563</v>
       </c>
       <c r="K8">
-        <v>1.038388195287138</v>
+        <v>1.029445912831679</v>
       </c>
       <c r="L8">
-        <v>1.043956575063674</v>
+        <v>1.026446694973494</v>
       </c>
       <c r="M8">
-        <v>1.053098075743804</v>
+        <v>1.033258135286993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030296457052601</v>
+        <v>0.9900003741089592</v>
       </c>
       <c r="D9">
-        <v>1.033984848373055</v>
+        <v>1.010552884383459</v>
       </c>
       <c r="E9">
-        <v>1.039205688612879</v>
+        <v>1.006198734816886</v>
       </c>
       <c r="F9">
-        <v>1.048142343295738</v>
+        <v>1.012095312367873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033208993213326</v>
+        <v>1.040474528270146</v>
       </c>
       <c r="J9">
-        <v>1.036131713349781</v>
+        <v>1.015911254686529</v>
       </c>
       <c r="K9">
-        <v>1.037154013877927</v>
+        <v>1.023477037579844</v>
       </c>
       <c r="L9">
-        <v>1.042357844361874</v>
+        <v>1.019192036116459</v>
       </c>
       <c r="M9">
-        <v>1.051265813390655</v>
+        <v>1.024995152947075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028782743725124</v>
+        <v>0.9822537368654103</v>
       </c>
       <c r="D10">
-        <v>1.032871788747539</v>
+        <v>1.004999598222026</v>
       </c>
       <c r="E10">
-        <v>1.037853870803772</v>
+        <v>0.9997459404603667</v>
       </c>
       <c r="F10">
-        <v>1.046637718527403</v>
+        <v>1.004941123801132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032950067206241</v>
+        <v>1.038620377865462</v>
       </c>
       <c r="J10">
-        <v>1.035164817161202</v>
+        <v>1.011189578719887</v>
       </c>
       <c r="K10">
-        <v>1.036328601411075</v>
+        <v>1.019279166328664</v>
       </c>
       <c r="L10">
-        <v>1.041292858766433</v>
+        <v>1.01411978354626</v>
       </c>
       <c r="M10">
-        <v>1.050045735426713</v>
+        <v>1.019221734168085</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028127878424783</v>
+        <v>0.9788031507351875</v>
       </c>
       <c r="D11">
-        <v>1.032390039436615</v>
+        <v>1.002530909076127</v>
       </c>
       <c r="E11">
-        <v>1.037269513991818</v>
+        <v>0.9968813368131599</v>
       </c>
       <c r="F11">
-        <v>1.045987310412934</v>
+        <v>1.00176436837157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032836429526944</v>
+        <v>1.037782733583458</v>
       </c>
       <c r="J11">
-        <v>1.034746009930003</v>
+        <v>1.009085126044775</v>
       </c>
       <c r="K11">
-        <v>1.035970577510792</v>
+        <v>1.017405253472293</v>
       </c>
       <c r="L11">
-        <v>1.040831917618992</v>
+        <v>1.011862307182612</v>
       </c>
       <c r="M11">
-        <v>1.049517779979842</v>
+        <v>1.016653087818085</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02788472042617</v>
+        <v>0.9775061533519113</v>
       </c>
       <c r="D12">
-        <v>1.032211129514219</v>
+        <v>1.001603817489124</v>
       </c>
       <c r="E12">
-        <v>1.037052607586331</v>
+        <v>0.9958061213113337</v>
       </c>
       <c r="F12">
-        <v>1.045745886895775</v>
+        <v>1.000571859690249</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032793991374344</v>
+        <v>1.037466176382457</v>
       </c>
       <c r="J12">
-        <v>1.034590426810188</v>
+        <v>1.008293973381353</v>
       </c>
       <c r="K12">
-        <v>1.035837499997514</v>
+        <v>1.016700355256802</v>
       </c>
       <c r="L12">
-        <v>1.040660735175556</v>
+        <v>1.011014112916705</v>
       </c>
       <c r="M12">
-        <v>1.049321726825228</v>
+        <v>1.015688111965782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02793687464431</v>
+        <v>0.9777850699819515</v>
       </c>
       <c r="D13">
-        <v>1.032249504776604</v>
+        <v>1.00180314743019</v>
       </c>
       <c r="E13">
-        <v>1.037099127952986</v>
+        <v>0.9960372741324981</v>
       </c>
       <c r="F13">
-        <v>1.045797665484201</v>
+        <v>1.000828234516976</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032803104814947</v>
+        <v>1.037534327435154</v>
       </c>
       <c r="J13">
-        <v>1.03462380078581</v>
+        <v>1.008464114389153</v>
       </c>
       <c r="K13">
-        <v>1.035866049702102</v>
+        <v>1.016851965222605</v>
       </c>
       <c r="L13">
-        <v>1.040697452945705</v>
+        <v>1.011196498976839</v>
       </c>
       <c r="M13">
-        <v>1.049363778478226</v>
+        <v>1.015895603402982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02810777710736</v>
+        <v>0.9786962576168908</v>
       </c>
       <c r="D14">
-        <v>1.032375250001724</v>
+        <v>1.002454484559752</v>
       </c>
       <c r="E14">
-        <v>1.037251581379723</v>
+        <v>0.99679269062251</v>
       </c>
       <c r="F14">
-        <v>1.045967350856238</v>
+        <v>1.001666054618323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032832926225702</v>
+        <v>1.037756678571567</v>
       </c>
       <c r="J14">
-        <v>1.034733149773351</v>
+        <v>1.009019924985024</v>
       </c>
       <c r="K14">
-        <v>1.035959579143427</v>
+        <v>1.017347169178172</v>
       </c>
       <c r="L14">
-        <v>1.040817766974658</v>
+        <v>1.011792395271524</v>
       </c>
       <c r="M14">
-        <v>1.049501573078016</v>
+        <v>1.016573547549249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028213087451969</v>
+        <v>0.9792556174531649</v>
       </c>
       <c r="D15">
-        <v>1.032452730224379</v>
+        <v>1.002854440104213</v>
       </c>
       <c r="E15">
-        <v>1.037345532841941</v>
+        <v>0.997256628876271</v>
       </c>
       <c r="F15">
-        <v>1.046071921778504</v>
+        <v>1.002180583671113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03285126997475</v>
+        <v>1.037892952403159</v>
       </c>
       <c r="J15">
-        <v>1.034800520737539</v>
+        <v>1.009361109675967</v>
       </c>
       <c r="K15">
-        <v>1.036017193621335</v>
+        <v>1.017651096413837</v>
       </c>
       <c r="L15">
-        <v>1.040891900635253</v>
+        <v>1.012158250783512</v>
       </c>
       <c r="M15">
-        <v>1.049586479931501</v>
+        <v>1.016989794578548</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028826217304063</v>
+        <v>0.982480643146715</v>
       </c>
       <c r="D16">
-        <v>1.032903765453369</v>
+        <v>1.005162046402107</v>
       </c>
       <c r="E16">
-        <v>1.037892673577626</v>
+        <v>0.9999345206066483</v>
       </c>
       <c r="F16">
-        <v>1.046680907333017</v>
+        <v>1.005150236041153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032957576957702</v>
+        <v>1.038675220531057</v>
       </c>
       <c r="J16">
-        <v>1.035192609244745</v>
+        <v>1.011327942954244</v>
       </c>
       <c r="K16">
-        <v>1.036352349398967</v>
+        <v>1.019402314102772</v>
       </c>
       <c r="L16">
-        <v>1.041323454298722</v>
+        <v>1.014268276183141</v>
       </c>
       <c r="M16">
-        <v>1.050080781471028</v>
+        <v>1.019390713533407</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029210973857526</v>
+        <v>0.9844772779788711</v>
       </c>
       <c r="D17">
-        <v>1.033186745800674</v>
+        <v>1.006592059972992</v>
       </c>
       <c r="E17">
-        <v>1.038236146134155</v>
+        <v>1.001595017587567</v>
       </c>
       <c r="F17">
-        <v>1.047063204322041</v>
+        <v>1.006991433132708</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033023853623361</v>
+        <v>1.039156471847419</v>
       </c>
       <c r="J17">
-        <v>1.035438520470568</v>
+        <v>1.012545323854074</v>
       </c>
       <c r="K17">
-        <v>1.036562419770016</v>
+        <v>1.020485485372102</v>
       </c>
       <c r="L17">
-        <v>1.041594211917702</v>
+        <v>1.015575138046627</v>
       </c>
       <c r="M17">
-        <v>1.050390937181769</v>
+        <v>1.020877977709365</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029435452013017</v>
+        <v>0.9856326550663993</v>
       </c>
       <c r="D18">
-        <v>1.033351823903438</v>
+        <v>1.007420014283289</v>
       </c>
       <c r="E18">
-        <v>1.038436583235917</v>
+        <v>1.002556796425515</v>
       </c>
       <c r="F18">
-        <v>1.047286298166507</v>
+        <v>1.008057802136232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033062364895124</v>
+        <v>1.039433835078088</v>
       </c>
       <c r="J18">
-        <v>1.035581943268992</v>
+        <v>1.013249651369816</v>
       </c>
       <c r="K18">
-        <v>1.036684890879716</v>
+        <v>1.021111886084668</v>
       </c>
       <c r="L18">
-        <v>1.041752159942221</v>
+        <v>1.016331541697907</v>
       </c>
       <c r="M18">
-        <v>1.05057187911435</v>
+        <v>1.021738882005046</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029512002771529</v>
+        <v>0.986025068301098</v>
       </c>
       <c r="D19">
-        <v>1.033408114701976</v>
+        <v>1.00770129656981</v>
       </c>
       <c r="E19">
-        <v>1.038504943250503</v>
+        <v>1.002883608408437</v>
       </c>
       <c r="F19">
-        <v>1.047362385429373</v>
+        <v>1.008420141683871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033075471332279</v>
+        <v>1.039527847456739</v>
       </c>
       <c r="J19">
-        <v>1.035630844497951</v>
+        <v>1.013488846984494</v>
       </c>
       <c r="K19">
-        <v>1.036726640263953</v>
+        <v>1.021324569162474</v>
       </c>
       <c r="L19">
-        <v>1.041806019449312</v>
+        <v>1.016588474690789</v>
       </c>
       <c r="M19">
-        <v>1.050633581265374</v>
+        <v>1.022031325903654</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029169687306525</v>
+        <v>0.9842640181254041</v>
       </c>
       <c r="D20">
-        <v>1.033156382562867</v>
+        <v>1.006439272397436</v>
       </c>
       <c r="E20">
-        <v>1.038199284906722</v>
+        <v>1.001417565374082</v>
       </c>
       <c r="F20">
-        <v>1.047022176451553</v>
+        <v>1.006794677745097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033016757943835</v>
+        <v>1.039105185218585</v>
       </c>
       <c r="J20">
-        <v>1.035412137868376</v>
+        <v>1.012415308397187</v>
       </c>
       <c r="K20">
-        <v>1.036539887343236</v>
+        <v>1.020369832147598</v>
       </c>
       <c r="L20">
-        <v>1.041565160145006</v>
+        <v>1.01543553431816</v>
       </c>
       <c r="M20">
-        <v>1.050357656952307</v>
+        <v>1.020719093951601</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028057448153838</v>
+        <v>0.9784283648433625</v>
       </c>
       <c r="D21">
-        <v>1.032338220239989</v>
+        <v>1.002262965157577</v>
       </c>
       <c r="E21">
-        <v>1.037206683503037</v>
+        <v>0.9965705526341735</v>
       </c>
       <c r="F21">
-        <v>1.045917378124153</v>
+        <v>1.001419688630159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032824150855386</v>
+        <v>1.037691352906542</v>
       </c>
       <c r="J21">
-        <v>1.034700949753033</v>
+        <v>1.008856517767308</v>
       </c>
       <c r="K21">
-        <v>1.035932039572781</v>
+        <v>1.017201591427058</v>
       </c>
       <c r="L21">
-        <v>1.040782336611906</v>
+        <v>1.01161718953636</v>
       </c>
       <c r="M21">
-        <v>1.049460994531816</v>
+        <v>1.0163742144007</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027358649462838</v>
+        <v>0.9746702997452313</v>
       </c>
       <c r="D22">
-        <v>1.031824001939178</v>
+        <v>0.9995783946043431</v>
       </c>
       <c r="E22">
-        <v>1.036583462465288</v>
+        <v>0.9934580747625874</v>
       </c>
       <c r="F22">
-        <v>1.04522371441645</v>
+        <v>0.9979674203679667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03270173188306</v>
+        <v>1.036770963190669</v>
       </c>
       <c r="J22">
-        <v>1.034253685319358</v>
+        <v>1.006563949537354</v>
       </c>
       <c r="K22">
-        <v>1.035549332623949</v>
+        <v>1.01515820820923</v>
       </c>
       <c r="L22">
-        <v>1.040290327777487</v>
+        <v>1.009160252068116</v>
       </c>
       <c r="M22">
-        <v>1.04889753443449</v>
+        <v>1.013579250882112</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02772904730401</v>
+        <v>0.9766712490899797</v>
       </c>
       <c r="D23">
-        <v>1.032096580097479</v>
+        <v>1.001007276275557</v>
       </c>
       <c r="E23">
-        <v>1.036913761188507</v>
+        <v>0.9951144215641505</v>
       </c>
       <c r="F23">
-        <v>1.045591346657798</v>
+        <v>0.9998046661108468</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032766753393796</v>
+        <v>1.037261928970764</v>
       </c>
       <c r="J23">
-        <v>1.034490799034381</v>
+        <v>1.007784660607105</v>
       </c>
       <c r="K23">
-        <v>1.035752262661277</v>
+        <v>1.016246455691158</v>
       </c>
       <c r="L23">
-        <v>1.040551133293232</v>
+        <v>1.010468216313977</v>
       </c>
       <c r="M23">
-        <v>1.049196205854447</v>
+        <v>1.015067092354491</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029188342748204</v>
+        <v>0.9843604095241764</v>
       </c>
       <c r="D24">
-        <v>1.033170102339976</v>
+        <v>1.006508329491638</v>
       </c>
       <c r="E24">
-        <v>1.038215940614136</v>
+        <v>1.001497769242212</v>
       </c>
       <c r="F24">
-        <v>1.047040714851277</v>
+        <v>1.006883606381564</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033019964629561</v>
+        <v>1.039128369753845</v>
       </c>
       <c r="J24">
-        <v>1.035424059071078</v>
+        <v>1.012474074521928</v>
       </c>
       <c r="K24">
-        <v>1.036550068960551</v>
+        <v>1.020422107503938</v>
       </c>
       <c r="L24">
-        <v>1.041578287329801</v>
+        <v>1.015498633329154</v>
       </c>
       <c r="M24">
-        <v>1.050372694752477</v>
+        <v>1.020790907013726</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030883974986473</v>
+        <v>0.9929238093955256</v>
       </c>
       <c r="D25">
-        <v>1.034416662974905</v>
+        <v>1.012652255119588</v>
       </c>
       <c r="E25">
-        <v>1.039730784495487</v>
+        <v>1.008641814316708</v>
       </c>
       <c r="F25">
-        <v>1.048726798899577</v>
+        <v>1.014803338006023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033308042388879</v>
+        <v>1.041163724762616</v>
       </c>
       <c r="J25">
-        <v>1.036506540242277</v>
+        <v>1.017691685048036</v>
       </c>
       <c r="K25">
-        <v>1.037473546049255</v>
+        <v>1.025057285539578</v>
       </c>
       <c r="L25">
-        <v>1.042771011466525</v>
+        <v>1.021107442283935</v>
       </c>
       <c r="M25">
-        <v>1.051739249508673</v>
+        <v>1.027176116758137</v>
       </c>
     </row>
   </sheetData>
